--- a/attack_data/Vendor_Self_Assessment_Form_Evidence List .xlsx
+++ b/attack_data/Vendor_Self_Assessment_Form_Evidence List .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhala\Avaly.ai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DE4E11-0197-478E-AF8A-7E4F582D2185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162F5F6B-8F70-42FE-9340-3B8018D7F781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3067,8 +3067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D107" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
